--- a/data/raw_data/uown 8.26.xlsx
+++ b/data/raw_data/uown 8.26.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliafoley/Desktop/Undergrad Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliafoley/Desktop/MADA/AmeliaFoley-MADA-project/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD1B5FA-16A0-894F-BCE0-0A62C9992C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF26311-7322-AB4B-888B-0ACE7CE61845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="28080" windowHeight="16060" xr2:uid="{87404593-125E-F94B-BF8C-C4ABDBB2344B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21500" windowHeight="16060" xr2:uid="{87404593-125E-F94B-BF8C-C4ABDBB2344B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="95">
   <si>
     <t>site</t>
   </si>
@@ -246,42 +246,9 @@
     <t>NORO 510</t>
   </si>
   <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Lott</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Deb</t>
-  </si>
-  <si>
     <t>100 ml for B, 150 for A</t>
   </si>
   <si>
-    <t>Schmitz</t>
-  </si>
-  <si>
-    <t>Sonia</t>
-  </si>
-  <si>
-    <t>stopped at sonia mido 613</t>
-  </si>
-  <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>Margaret</t>
-  </si>
-  <si>
-    <t>Shmitz</t>
-  </si>
-  <si>
     <t>MIDO 504</t>
   </si>
   <si>
@@ -294,9 +261,6 @@
     <t>d_count</t>
   </si>
   <si>
-    <t>Diane</t>
-  </si>
-  <si>
     <t>july_21</t>
   </si>
   <si>
@@ -313,6 +277,51 @@
   </si>
   <si>
     <t>really long fiber off of filter</t>
+  </si>
+  <si>
+    <t>bench</t>
+  </si>
+  <si>
+    <t>bench a</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>stopped at c mido 613</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -360,11 +369,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,11 +689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C59B31C-D8FA-8749-B606-0A1E2AE6D706}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -717,13 +727,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>8</v>
@@ -750,10 +760,10 @@
       </c>
       <c r="E2" s="1"/>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -773,13 +783,13 @@
         <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K3">
         <v>12</v>
@@ -788,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -811,7 +821,7 @@
         <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -820,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -829,10 +839,10 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -852,13 +862,13 @@
         <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G5" s="1">
         <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -867,10 +877,10 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -890,7 +900,7 @@
         <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -899,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -908,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -931,13 +941,13 @@
         <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -946,10 +956,10 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -969,7 +979,7 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -978,7 +988,7 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K8">
         <v>11</v>
@@ -987,13 +997,13 @@
         <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1013,7 +1023,7 @@
         <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G9">
         <v>38</v>
@@ -1022,7 +1032,7 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K9">
         <v>11</v>
@@ -1031,10 +1041,10 @@
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1054,7 +1064,7 @@
         <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1062,11 +1072,20 @@
       <c r="H10" s="1">
         <v>10</v>
       </c>
+      <c r="J10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
       <c r="M10" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1086,7 +1105,7 @@
         <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1095,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -1104,10 +1123,10 @@
         <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1127,10 +1146,10 @@
         <v>150</v>
       </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N12" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1150,7 +1169,7 @@
         <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -1158,11 +1177,20 @@
       <c r="H13" s="1">
         <v>10</v>
       </c>
+      <c r="J13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1182,10 +1210,10 @@
         <v>150</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1205,7 +1233,7 @@
         <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -1214,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="K15">
         <v>28</v>
@@ -1223,13 +1251,13 @@
         <v>24</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N15" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="O15" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1249,7 +1277,7 @@
         <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G16">
         <v>14</v>
@@ -1257,11 +1285,20 @@
       <c r="H16">
         <v>12</v>
       </c>
+      <c r="J16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -1281,7 +1318,7 @@
         <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G17">
         <v>14</v>
@@ -1290,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K17">
         <v>11</v>
@@ -1299,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N17" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -1322,7 +1359,7 @@
         <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -1330,11 +1367,20 @@
       <c r="H18" s="1">
         <v>8</v>
       </c>
+      <c r="J18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
       <c r="M18" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N18" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -1354,7 +1400,7 @@
         <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G19">
         <v>34</v>
@@ -1363,7 +1409,7 @@
         <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K19">
         <v>12</v>
@@ -1372,10 +1418,10 @@
         <v>6</v>
       </c>
       <c r="M19" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N19" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -1395,7 +1441,7 @@
         <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -1404,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="K20">
         <v>26</v>
@@ -1413,10 +1459,10 @@
         <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N20" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -1436,7 +1482,7 @@
         <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -1445,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K21">
         <v>9</v>
@@ -1454,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N21" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -1477,7 +1523,7 @@
         <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G22">
         <v>12</v>
@@ -1486,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1495,13 +1541,13 @@
         <v>2</v>
       </c>
       <c r="M22" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N22" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="O22" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -1521,7 +1567,7 @@
         <v>150</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -1529,14 +1575,23 @@
       <c r="H23" s="1">
         <v>15</v>
       </c>
+      <c r="J23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
       <c r="M23" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N23" t="s">
+        <v>75</v>
+      </c>
+      <c r="R23" t="s">
         <v>87</v>
-      </c>
-      <c r="R23" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -1556,7 +1611,7 @@
         <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G24">
         <v>6</v>
@@ -1565,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1574,10 +1629,10 @@
         <v>3</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N24" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -1597,7 +1652,7 @@
         <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -1606,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1615,10 +1670,10 @@
         <v>5</v>
       </c>
       <c r="M25" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N25" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -1638,7 +1693,7 @@
         <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G26">
         <v>20</v>
@@ -1647,7 +1702,7 @@
         <v>27</v>
       </c>
       <c r="J26" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K26">
         <v>17</v>
@@ -1656,13 +1711,13 @@
         <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N26" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="O26" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -1682,7 +1737,7 @@
         <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G27">
         <v>26</v>
@@ -1691,7 +1746,7 @@
         <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -1700,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N27" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -1723,7 +1778,7 @@
         <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1731,11 +1786,20 @@
       <c r="H28" s="1">
         <v>3</v>
       </c>
+      <c r="J28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
       <c r="M28" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N28" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -1755,10 +1819,10 @@
         <v>150</v>
       </c>
       <c r="M29" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N29" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -1778,7 +1842,7 @@
         <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G30">
         <v>22</v>
@@ -1788,7 +1852,7 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K30">
         <v>7</v>
@@ -1797,10 +1861,10 @@
         <v>10</v>
       </c>
       <c r="M30" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N30" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -1820,10 +1884,10 @@
         <v>150</v>
       </c>
       <c r="M31" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N31" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -1843,7 +1907,7 @@
         <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1852,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K32">
         <v>18</v>
@@ -1861,10 +1925,10 @@
         <v>30</v>
       </c>
       <c r="M32" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N32" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -1884,7 +1948,7 @@
         <v>150</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -1893,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -1902,10 +1966,10 @@
         <v>9</v>
       </c>
       <c r="M33" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N33" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -1925,7 +1989,7 @@
         <v>150</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G34">
         <v>13</v>
@@ -1934,7 +1998,7 @@
         <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1943,13 +2007,13 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N34" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="O34" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -1969,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="M35" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N35" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -1992,10 +2056,10 @@
         <v>150</v>
       </c>
       <c r="M36" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N36" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2015,10 +2079,10 @@
         <v>150</v>
       </c>
       <c r="M37" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N37" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2038,7 +2102,7 @@
         <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G38">
         <v>9</v>
@@ -2046,11 +2110,20 @@
       <c r="H38" s="1">
         <v>10</v>
       </c>
+      <c r="J38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
       <c r="M38" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N38" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -2070,7 +2143,7 @@
         <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -2078,11 +2151,20 @@
       <c r="H39" s="1">
         <v>16</v>
       </c>
+      <c r="J39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>15</v>
+      </c>
       <c r="M39" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N39" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -2102,10 +2184,10 @@
         <v>150</v>
       </c>
       <c r="M40" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -2125,7 +2207,7 @@
         <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G41">
         <v>20</v>
@@ -2134,7 +2216,7 @@
         <v>12</v>
       </c>
       <c r="J41" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K41">
         <v>8</v>
@@ -2143,10 +2225,10 @@
         <v>2</v>
       </c>
       <c r="M41" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N41" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2166,7 +2248,7 @@
         <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2175,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K42">
         <v>10</v>
@@ -2184,15 +2266,15 @@
         <v>5</v>
       </c>
       <c r="M42" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N42" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E43" s="1">
         <v>150</v>
@@ -2204,13 +2286,47 @@
         <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="M43" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N43" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/uown 8.26.xlsx
+++ b/data/raw_data/uown 8.26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliafoley/Desktop/MADA/AmeliaFoley-MADA-project/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF26311-7322-AB4B-888B-0ACE7CE61845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C8FC9E-CA40-D048-BE90-6A57A8AB53EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21500" windowHeight="16060" xr2:uid="{87404593-125E-F94B-BF8C-C4ABDBB2344B}"/>
+    <workbookView xWindow="9040" yWindow="500" windowWidth="21500" windowHeight="16060" xr2:uid="{87404593-125E-F94B-BF8C-C4ABDBB2344B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -692,8 +692,8 @@
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/raw_data/uown 8.26.xlsx
+++ b/data/raw_data/uown 8.26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliafoley/Desktop/MADA/AmeliaFoley-MADA-project/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C8FC9E-CA40-D048-BE90-6A57A8AB53EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECE9A06-73C3-2D45-8429-44E1EA5F57AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="500" windowWidth="21500" windowHeight="16060" xr2:uid="{87404593-125E-F94B-BF8C-C4ABDBB2344B}"/>
+    <workbookView xWindow="7300" yWindow="500" windowWidth="21500" windowHeight="16060" xr2:uid="{87404593-125E-F94B-BF8C-C4ABDBB2344B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$43</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="96">
   <si>
     <t>site</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>j</t>
+  </si>
+  <si>
+    <t>rep_particles_l</t>
   </si>
 </sst>
 </file>
@@ -369,12 +372,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,16 +693,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C59B31C-D8FA-8749-B606-0A1E2AE6D706}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,16 +743,19 @@
         <v>73</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -759,14 +769,14 @@
         <v>-83.433199999999999</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="M2" t="s">
-        <v>74</v>
-      </c>
       <c r="N2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -788,6 +798,10 @@
       <c r="H3">
         <v>4</v>
       </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3" si="0">((G3+H3)/2)*(1000/E3)</f>
+        <v>13.333333333333334</v>
+      </c>
       <c r="J3" t="s">
         <v>93</v>
       </c>
@@ -797,14 +811,18 @@
       <c r="L3">
         <v>6</v>
       </c>
-      <c r="M3" t="s">
-        <v>74</v>
+      <c r="M3" s="5">
+        <f>((K3+L3)/2)*(1000/E3)</f>
+        <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -829,6 +847,10 @@
       <c r="H4" s="1">
         <v>12</v>
       </c>
+      <c r="I4" s="5">
+        <f>((G4+H4)/2)*(1000/E4)</f>
+        <v>86.666666666666671</v>
+      </c>
       <c r="J4" t="s">
         <v>92</v>
       </c>
@@ -838,14 +860,18 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>74</v>
+      <c r="M4" s="5">
+        <f>((K4+L4)/2)*(1000/E4)</f>
+        <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -867,6 +893,10 @@
       <c r="G5" s="1">
         <v>40</v>
       </c>
+      <c r="I5" s="5">
+        <f>((G5+H5)/2)*(1000/E5)</f>
+        <v>133.33333333333334</v>
+      </c>
       <c r="J5" t="s">
         <v>94</v>
       </c>
@@ -876,14 +906,18 @@
       <c r="L5">
         <v>3</v>
       </c>
-      <c r="M5" t="s">
-        <v>74</v>
+      <c r="M5" s="5">
+        <f t="shared" ref="M5:M42" si="1">((K5+L5)/2)*(1000/E5)</f>
+        <v>23.333333333333336</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -908,6 +942,10 @@
       <c r="H6" s="1">
         <v>7</v>
       </c>
+      <c r="I6" s="5">
+        <f t="shared" ref="I6:I43" si="2">((G6+H6)/2)*(1000/E6)</f>
+        <v>50</v>
+      </c>
       <c r="J6" t="s">
         <v>85</v>
       </c>
@@ -917,14 +955,18 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>74</v>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -946,6 +988,10 @@
       <c r="H7">
         <v>5</v>
       </c>
+      <c r="I7" s="5">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
       <c r="J7" t="s">
         <v>94</v>
       </c>
@@ -955,14 +1001,18 @@
       <c r="L7">
         <v>10</v>
       </c>
-      <c r="M7" t="s">
-        <v>74</v>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>43.333333333333336</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -987,6 +1037,10 @@
       <c r="H8" s="1">
         <v>12</v>
       </c>
+      <c r="I8" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
       <c r="J8" t="s">
         <v>89</v>
       </c>
@@ -996,17 +1050,21 @@
       <c r="L8">
         <v>13</v>
       </c>
-      <c r="M8" t="s">
-        <v>74</v>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1031,6 +1089,10 @@
       <c r="H9" s="1">
         <v>12</v>
       </c>
+      <c r="I9" s="5">
+        <f t="shared" si="2"/>
+        <v>166.66666666666669</v>
+      </c>
       <c r="J9" t="s">
         <v>89</v>
       </c>
@@ -1040,14 +1102,18 @@
       <c r="L9">
         <v>8</v>
       </c>
-      <c r="M9" t="s">
-        <v>74</v>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>63.333333333333336</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1072,6 +1138,10 @@
       <c r="H10" s="1">
         <v>10</v>
       </c>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>53.333333333333336</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>83</v>
       </c>
@@ -1081,14 +1151,18 @@
       <c r="L10">
         <v>9</v>
       </c>
-      <c r="M10" t="s">
-        <v>74</v>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>63.333333333333336</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1113,6 +1187,10 @@
       <c r="H11" s="1">
         <v>4</v>
       </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="J11" t="s">
         <v>85</v>
       </c>
@@ -1122,14 +1200,18 @@
       <c r="L11">
         <v>6</v>
       </c>
-      <c r="M11" t="s">
-        <v>74</v>
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1145,14 +1227,19 @@
       <c r="E12" s="1">
         <v>150</v>
       </c>
-      <c r="M12" t="s">
-        <v>74</v>
-      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="5"/>
       <c r="N12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1177,6 +1264,10 @@
       <c r="H13" s="1">
         <v>10</v>
       </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>73.333333333333343</v>
+      </c>
       <c r="J13" s="4" t="s">
         <v>83</v>
       </c>
@@ -1186,14 +1277,18 @@
       <c r="L13">
         <v>11</v>
       </c>
-      <c r="M13" t="s">
-        <v>74</v>
+      <c r="M13" s="5">
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1209,14 +1304,18 @@
       <c r="E14" s="1">
         <v>150</v>
       </c>
-      <c r="M14" t="s">
-        <v>74</v>
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1241,6 +1340,10 @@
       <c r="H15">
         <v>10</v>
       </c>
+      <c r="I15" s="5">
+        <f t="shared" si="2"/>
+        <v>56.666666666666671</v>
+      </c>
       <c r="J15" t="s">
         <v>88</v>
       </c>
@@ -1250,17 +1353,21 @@
       <c r="L15">
         <v>24</v>
       </c>
-      <c r="M15" t="s">
-        <v>74</v>
+      <c r="M15" s="5">
+        <f t="shared" si="1"/>
+        <v>173.33333333333334</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1285,6 +1392,10 @@
       <c r="H16">
         <v>12</v>
       </c>
+      <c r="I16" s="5">
+        <f t="shared" si="2"/>
+        <v>86.666666666666671</v>
+      </c>
       <c r="J16" s="4" t="s">
         <v>83</v>
       </c>
@@ -1294,14 +1405,18 @@
       <c r="L16">
         <v>15</v>
       </c>
-      <c r="M16" t="s">
-        <v>74</v>
+      <c r="M16" s="5">
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="N16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1326,6 +1441,10 @@
       <c r="H17" s="1">
         <v>11</v>
       </c>
+      <c r="I17" s="5">
+        <f t="shared" si="2"/>
+        <v>83.333333333333343</v>
+      </c>
       <c r="J17" t="s">
         <v>90</v>
       </c>
@@ -1335,14 +1454,18 @@
       <c r="L17">
         <v>10</v>
       </c>
-      <c r="M17" t="s">
-        <v>74</v>
+      <c r="M17" s="5">
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="N17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1367,6 +1490,10 @@
       <c r="H18" s="1">
         <v>8</v>
       </c>
+      <c r="I18" s="5">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="J18" s="4" t="s">
         <v>83</v>
       </c>
@@ -1376,14 +1503,18 @@
       <c r="L18">
         <v>10</v>
       </c>
-      <c r="M18" t="s">
-        <v>74</v>
+      <c r="M18" s="5">
+        <f t="shared" si="1"/>
+        <v>63.333333333333336</v>
       </c>
       <c r="N18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1408,6 +1539,10 @@
       <c r="H19">
         <v>16</v>
       </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>166.66666666666669</v>
+      </c>
       <c r="J19" t="s">
         <v>92</v>
       </c>
@@ -1417,14 +1552,18 @@
       <c r="L19">
         <v>6</v>
       </c>
-      <c r="M19" t="s">
-        <v>74</v>
+      <c r="M19" s="5">
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="N19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1449,6 +1588,10 @@
       <c r="H20" s="1">
         <v>5</v>
       </c>
+      <c r="I20" s="5">
+        <f t="shared" si="2"/>
+        <v>53.333333333333336</v>
+      </c>
       <c r="J20" t="s">
         <v>88</v>
       </c>
@@ -1458,14 +1601,18 @@
       <c r="L20">
         <v>33</v>
       </c>
-      <c r="M20" t="s">
-        <v>74</v>
+      <c r="M20" s="5">
+        <f t="shared" si="1"/>
+        <v>196.66666666666669</v>
       </c>
       <c r="N20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -1490,6 +1637,10 @@
       <c r="H21" s="1">
         <v>4</v>
       </c>
+      <c r="I21" s="5">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="J21" t="s">
         <v>90</v>
       </c>
@@ -1499,14 +1650,18 @@
       <c r="L21">
         <v>8</v>
       </c>
-      <c r="M21" t="s">
-        <v>74</v>
+      <c r="M21" s="5">
+        <f t="shared" si="1"/>
+        <v>56.666666666666671</v>
       </c>
       <c r="N21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -1531,6 +1686,10 @@
       <c r="H22" s="1">
         <v>10</v>
       </c>
+      <c r="I22" s="5">
+        <f t="shared" si="2"/>
+        <v>73.333333333333343</v>
+      </c>
       <c r="J22" t="s">
         <v>94</v>
       </c>
@@ -1540,17 +1699,21 @@
       <c r="L22">
         <v>2</v>
       </c>
-      <c r="M22" t="s">
-        <v>74</v>
+      <c r="M22" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="N22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1575,6 +1738,10 @@
       <c r="H23" s="1">
         <v>15</v>
       </c>
+      <c r="I23" s="5">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="J23" s="4" t="s">
         <v>83</v>
       </c>
@@ -1584,17 +1751,21 @@
       <c r="L23">
         <v>6</v>
       </c>
-      <c r="M23" t="s">
-        <v>74</v>
+      <c r="M23" s="5">
+        <f t="shared" si="1"/>
+        <v>36.666666666666671</v>
       </c>
       <c r="N23" t="s">
-        <v>75</v>
-      </c>
-      <c r="R23" t="s">
+        <v>74</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="S23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1619,6 +1790,10 @@
       <c r="H24" s="1">
         <v>3</v>
       </c>
+      <c r="I24" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
       <c r="J24" t="s">
         <v>85</v>
       </c>
@@ -1628,14 +1803,18 @@
       <c r="L24">
         <v>3</v>
       </c>
-      <c r="M24" t="s">
-        <v>74</v>
+      <c r="M24" s="5">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="N24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1660,6 +1839,10 @@
       <c r="H25">
         <v>10</v>
       </c>
+      <c r="I25" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
       <c r="J25" t="s">
         <v>85</v>
       </c>
@@ -1669,14 +1852,18 @@
       <c r="L25">
         <v>5</v>
       </c>
-      <c r="M25" t="s">
-        <v>74</v>
+      <c r="M25" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="N25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -1701,6 +1888,10 @@
       <c r="H26" s="1">
         <v>27</v>
       </c>
+      <c r="I26" s="5">
+        <f t="shared" si="2"/>
+        <v>156.66666666666669</v>
+      </c>
       <c r="J26" t="s">
         <v>90</v>
       </c>
@@ -1710,17 +1901,21 @@
       <c r="L26">
         <v>23</v>
       </c>
-      <c r="M26" t="s">
-        <v>74</v>
+      <c r="M26" s="5">
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
       </c>
       <c r="N26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O26" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -1745,6 +1940,10 @@
       <c r="H27" s="1">
         <v>22</v>
       </c>
+      <c r="I27" s="5">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
       <c r="J27" t="s">
         <v>94</v>
       </c>
@@ -1754,14 +1953,18 @@
       <c r="L27">
         <v>2</v>
       </c>
-      <c r="M27" t="s">
-        <v>74</v>
+      <c r="M27" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="N27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1786,6 +1989,10 @@
       <c r="H28" s="1">
         <v>3</v>
       </c>
+      <c r="I28" s="5">
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
+      </c>
       <c r="J28" s="4" t="s">
         <v>83</v>
       </c>
@@ -1795,14 +2002,18 @@
       <c r="L28">
         <v>5</v>
       </c>
-      <c r="M28" t="s">
-        <v>74</v>
+      <c r="M28" s="5">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
       </c>
       <c r="N28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -1818,14 +2029,15 @@
       <c r="E29" s="1">
         <v>150</v>
       </c>
-      <c r="M29" t="s">
-        <v>74</v>
-      </c>
+      <c r="M29" s="5"/>
       <c r="N29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1850,7 +2062,10 @@
       <c r="H30" s="1">
         <v>25</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I30" s="5">
+        <f t="shared" si="2"/>
+        <v>156.66666666666669</v>
+      </c>
       <c r="J30" t="s">
         <v>89</v>
       </c>
@@ -1860,14 +2075,18 @@
       <c r="L30">
         <v>10</v>
       </c>
-      <c r="M30" t="s">
-        <v>74</v>
+      <c r="M30" s="5">
+        <f t="shared" si="1"/>
+        <v>56.666666666666671</v>
       </c>
       <c r="N30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -1883,14 +2102,15 @@
       <c r="E31" s="1">
         <v>150</v>
       </c>
-      <c r="M31" t="s">
-        <v>74</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -1915,6 +2135,10 @@
       <c r="H32" s="1">
         <v>4</v>
       </c>
+      <c r="I32" s="5">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
       <c r="J32" t="s">
         <v>93</v>
       </c>
@@ -1924,14 +2148,18 @@
       <c r="L32">
         <v>30</v>
       </c>
-      <c r="M32" t="s">
-        <v>74</v>
+      <c r="M32" s="5">
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="N32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
@@ -1956,6 +2184,10 @@
       <c r="H33" s="1">
         <v>10</v>
       </c>
+      <c r="I33" s="5">
+        <f t="shared" si="2"/>
+        <v>53.333333333333336</v>
+      </c>
       <c r="J33" t="s">
         <v>90</v>
       </c>
@@ -1965,14 +2197,18 @@
       <c r="L33">
         <v>9</v>
       </c>
-      <c r="M33" t="s">
-        <v>74</v>
+      <c r="M33" s="5">
+        <f t="shared" si="1"/>
+        <v>46.666666666666671</v>
       </c>
       <c r="N33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -1997,6 +2233,10 @@
       <c r="H34">
         <v>12</v>
       </c>
+      <c r="I34" s="5">
+        <f t="shared" si="2"/>
+        <v>83.333333333333343</v>
+      </c>
       <c r="J34" t="s">
         <v>85</v>
       </c>
@@ -2006,17 +2246,21 @@
       <c r="L34">
         <v>1</v>
       </c>
-      <c r="M34" t="s">
-        <v>74</v>
+      <c r="M34" s="5">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
       </c>
       <c r="N34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O34" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -2032,14 +2276,15 @@
       <c r="E35" s="1">
         <v>150</v>
       </c>
-      <c r="M35" t="s">
-        <v>74</v>
-      </c>
+      <c r="M35" s="5"/>
       <c r="N35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -2055,14 +2300,15 @@
       <c r="E36" s="1">
         <v>150</v>
       </c>
-      <c r="M36" t="s">
-        <v>74</v>
-      </c>
+      <c r="M36" s="5"/>
       <c r="N36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -2078,14 +2324,15 @@
       <c r="E37" s="1">
         <v>150</v>
       </c>
-      <c r="M37" t="s">
-        <v>74</v>
-      </c>
+      <c r="M37" s="5"/>
       <c r="N37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
@@ -2110,6 +2357,10 @@
       <c r="H38" s="1">
         <v>10</v>
       </c>
+      <c r="I38" s="5">
+        <f t="shared" si="2"/>
+        <v>63.333333333333336</v>
+      </c>
       <c r="J38" s="4" t="s">
         <v>84</v>
       </c>
@@ -2119,14 +2370,18 @@
       <c r="L38">
         <v>19</v>
       </c>
-      <c r="M38" t="s">
-        <v>74</v>
+      <c r="M38" s="5">
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="N38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
@@ -2151,6 +2406,10 @@
       <c r="H39" s="1">
         <v>16</v>
       </c>
+      <c r="I39" s="5">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
       <c r="J39" s="4" t="s">
         <v>83</v>
       </c>
@@ -2160,14 +2419,18 @@
       <c r="L39">
         <v>15</v>
       </c>
-      <c r="M39" t="s">
-        <v>74</v>
+      <c r="M39" s="5">
+        <f t="shared" si="1"/>
+        <v>63.333333333333336</v>
       </c>
       <c r="N39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -2183,14 +2446,15 @@
       <c r="E40" s="1">
         <v>150</v>
       </c>
-      <c r="M40" t="s">
-        <v>74</v>
-      </c>
+      <c r="M40" s="5"/>
       <c r="N40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
@@ -2215,6 +2479,10 @@
       <c r="H41" s="1">
         <v>12</v>
       </c>
+      <c r="I41" s="5">
+        <f t="shared" si="2"/>
+        <v>106.66666666666667</v>
+      </c>
       <c r="J41" t="s">
         <v>89</v>
       </c>
@@ -2224,14 +2492,18 @@
       <c r="L41">
         <v>2</v>
       </c>
-      <c r="M41" t="s">
-        <v>74</v>
+      <c r="M41" s="5">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
       </c>
       <c r="N41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>68</v>
       </c>
@@ -2256,6 +2528,10 @@
       <c r="H42" s="1">
         <v>3</v>
       </c>
+      <c r="I42" s="5">
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
+      </c>
       <c r="J42" t="s">
         <v>92</v>
       </c>
@@ -2265,14 +2541,18 @@
       <c r="L42">
         <v>5</v>
       </c>
-      <c r="M42" t="s">
-        <v>74</v>
+      <c r="M42" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="N42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>70</v>
       </c>
@@ -2285,17 +2565,22 @@
       <c r="H43" s="1">
         <v>6</v>
       </c>
+      <c r="I43" s="5">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="J43" t="s">
         <v>92</v>
       </c>
-      <c r="M43" t="s">
-        <v>74</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="O43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
@@ -2312,10 +2597,13 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
+        <v>74</v>
+      </c>
+      <c r="O44" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -2326,6 +2614,9 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O45" t="s">
         <v>82</v>
       </c>
     </row>
